--- a/ui/src/upload-files/files/staff/import.staff.xlsx.xlsx
+++ b/ui/src/upload-files/files/staff/import.staff.xlsx.xlsx
@@ -22,55 +22,55 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
-    <t xml:space="preserve">Фамилия</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Имя</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Отчество</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Табельный номер</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дата приема</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Действует с</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Действует до</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Подразделение</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Должность</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Шаблон доступа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">График работы</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Карта доступа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Телефон</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Пин-код</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Транспортные средства</t>
+    <t xml:space="preserve">Фамилия1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Имя1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отчество1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Табельный номер1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дата приема1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Действует с1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Действует до1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Подразделение1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Должность1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шаблон доступа1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">График работы1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Карта доступа1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Телефон1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пин-код1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Транспортные средства1</t>
   </si>
   <si>
     <t xml:space="preserve">last1</t>
@@ -381,8 +381,8 @@
   </sheetPr>
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O7" activeCellId="0" sqref="O7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
